--- a/tests_cases/TC-Print3-02.xlsx
+++ b/tests_cases/TC-Print3-02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igu/Documents/UADE/Testing de aplicacioones /TestingAplicaciones-TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617ECCD3-E7FE-804C-B95B-7B33A5240BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EABA0C2-916F-40D8-9660-937F1F4C171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="760" windowWidth="14660" windowHeight="17640" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -146,31 +146,7 @@
     <t>Se deberia abrir una ventana para realizar el pago</t>
   </si>
   <si>
-    <t>camino alternativo</t>
-  </si>
-  <si>
     <t>Verificar que el usuario pueda agregar productos al carrito</t>
-  </si>
-  <si>
-    <t>Dentro del carrito, Clickear "Seguir comprando"</t>
-  </si>
-  <si>
-    <t>Deberia volver a la pagina de compra para seguir comprando</t>
-  </si>
-  <si>
-    <t>En el buscador ingregar "Cable de Iphone 15"</t>
-  </si>
-  <si>
-    <t>Dentro de la pagina, clickear en el buscador e ingresar "Mate de calabaza"</t>
-  </si>
-  <si>
-    <t>Se deberia mostar un popup de "Articulo inexstente"</t>
-  </si>
-  <si>
-    <t>Clickear "Modificar direccion de envio"</t>
-  </si>
-  <si>
-    <t>Se muestra un popup que indica que la direccion se modifico correctamete</t>
   </si>
 </sst>
 </file>
@@ -257,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -472,17 +448,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -491,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -566,11 +531,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -608,17 +597,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -626,34 +609,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -972,19 +931,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,12 +953,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +996,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1051,68 +1010,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="53">
+      <c r="C8" s="53"/>
+      <c r="D8" s="27">
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+    <row r="9" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53">
+      <c r="C9" s="49"/>
+      <c r="D9" s="27">
         <v>2</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="53">
+      <c r="C10" s="51"/>
+      <c r="D10" s="27">
         <v>3</v>
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1127,356 +1086,82 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>1</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>2</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>3</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
-        <v>1</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>2</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>3</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <v>4</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54">
-        <v>5</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54">
-        <v>6</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54">
-        <v>7</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="43"/>
-    </row>
-    <row r="35" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>1</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="43"/>
-    </row>
-    <row r="38" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
-        <v>1</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
-        <v>2</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
-        <v>3</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="47"/>
-    </row>
-    <row r="41" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
-        <v>4</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54">
-        <v>5</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54">
-        <v>6</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54">
-        <v>7</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55">
-        <v>8</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="27"/>
-    </row>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="28" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
+  <mergeCells count="16">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
@@ -1485,21 +1170,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-02.xlsx
+++ b/tests_cases/TC-Print3-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EABA0C2-916F-40D8-9660-937F1F4C171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABA220-8073-4414-8CFB-8B9296EEEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -98,21 +98,12 @@
     <t>El usuario tiene que estar logeado en la pagina</t>
   </si>
   <si>
-    <t>Producto que desea comprar: Iphone15</t>
-  </si>
-  <si>
-    <t>Segundo producto: cable de Iphone15</t>
-  </si>
-  <si>
     <t>No hay validacion de Stock</t>
   </si>
   <si>
     <t>Se puede agregar un producto a la vez</t>
   </si>
   <si>
-    <t>Dentro de la pagina, clickear en el buscador e ingresar "Iphone15"</t>
-  </si>
-  <si>
     <t>Se deberia mostrar el producto</t>
   </si>
   <si>
@@ -147,13 +138,49 @@
   </si>
   <si>
     <t>Verificar que el usuario pueda agregar productos al carrito</t>
+  </si>
+  <si>
+    <t>Producto que desea comprar:"Fisrt"</t>
+  </si>
+  <si>
+    <t>Segundo producto:  "Second"</t>
+  </si>
+  <si>
+    <t>Dentro de la pagina, clickear en el buscador e ingresar "Fisrt"</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>didn't turn out as we expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-007: El buscador de la pagina no funciona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,8 +246,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +288,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -450,13 +516,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -537,6 +703,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,74 +769,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{9D0C29B6-0928-FA4D-A8F0-20C320FD52A7}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{3199315A-BB95-DD4D-B688-F37EF362EA2B}"/>
@@ -931,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -948,15 +1149,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="39"/>
+      <c r="D1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -990,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1014,69 +1215,69 @@
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="27">
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="49"/>
+      <c r="B9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="27">
         <v>2</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="51"/>
+      <c r="B10" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="45"/>
       <c r="D10" s="27">
         <v>3</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="17" t="s">
@@ -1086,74 +1287,169 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>1</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>2</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>3</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="28" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B22" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="25">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E15"/>
@@ -1162,14 +1458,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-02.xlsx
+++ b/tests_cases/TC-Print3-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABA220-8073-4414-8CFB-8B9296EEEEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62012549-B5A0-41E8-9F26-51A31C3D23EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>HU-5</t>
-  </si>
-  <si>
     <t>Clickear "Carrito"</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>DF-007: El buscador de la pagina no funciona</t>
+  </si>
+  <si>
+    <t>PE-44</t>
   </si>
 </sst>
 </file>
@@ -673,12 +673,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,6 +697,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -757,62 +808,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1154,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1182,7 +1182,7 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1212,244 +1212,227 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="27">
+      <c r="C8" s="62"/>
+      <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>2</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="27">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="27">
+      <c r="C10" s="62"/>
+      <c r="D10" s="25">
         <v>3</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="64"/>
       <c r="D16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="46" t="s">
+      <c r="B19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>2</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>3</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48" t="s">
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="49"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>4</v>
-      </c>
-      <c r="B22" s="46" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60" t="s">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-    </row>
-    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+  <mergeCells count="26">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E15"/>
@@ -1458,6 +1441,24 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
